--- a/doc/objects/cat048.xlsx
+++ b/doc/objects/cat048.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="418">
   <si>
     <t xml:space="preserve">COLID</t>
   </si>
@@ -1106,6 +1106,9 @@
     <t xml:space="preserve">090.Flight Level</t>
   </si>
   <si>
+    <t xml:space="preserve">fl2ft</t>
+  </si>
+  <si>
     <t xml:space="preserve">090.G</t>
   </si>
   <si>
@@ -1139,7 +1142,7 @@
     <t xml:space="preserve">020.RAB</t>
   </si>
   <si>
-    <t xml:space="preserve">custom from 020.STAT</t>
+    <t xml:space="preserve">custom from 230.STAT</t>
   </si>
   <si>
     <t xml:space="preserve">different in db</t>
@@ -1359,7 +1362,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1376,11 +1379,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1407,7 +1414,7 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.01"/>
@@ -3953,10 +3960,10 @@
   <dimension ref="A1:I106"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E81" activeCellId="0" sqref="E81"/>
+      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.19"/>
@@ -4155,6 +4162,9 @@
       <c r="D9" s="0" t="s">
         <v>37</v>
       </c>
+      <c r="E9" s="0" t="s">
+        <v>361</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="I9" s="0" t="s">
         <v>15</v>
@@ -4162,7 +4172,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>39</v>
@@ -4183,7 +4193,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>41</v>
@@ -4195,7 +4205,7 @@
         <v>12</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F11" s="1"/>
       <c r="I11" s="0" t="s">
@@ -4213,7 +4223,7 @@
         <v>12</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>44</v>
@@ -4233,7 +4243,7 @@
         <v>17</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>47</v>
@@ -4244,7 +4254,7 @@
     </row>
     <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>49</v>
@@ -4264,7 +4274,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>53</v>
@@ -4284,7 +4294,7 @@
     </row>
     <row r="16" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>56</v>
@@ -4304,7 +4314,7 @@
     </row>
     <row r="17" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>59</v>
@@ -4333,7 +4343,7 @@
         <v>63</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F18" s="1"/>
       <c r="I18" s="0" t="s">
@@ -4350,8 +4360,8 @@
       <c r="D19" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>370</v>
+      <c r="E19" s="6" t="s">
+        <v>371</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>66</v>
@@ -4362,7 +4372,7 @@
     </row>
     <row r="20" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>68</v>
@@ -4382,7 +4392,7 @@
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>73</v>
@@ -4392,6 +4402,9 @@
       </c>
       <c r="D21" s="0" t="s">
         <v>12</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>353</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>74</v>
@@ -4411,7 +4424,7 @@
         <v>77</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>78</v>
@@ -4422,7 +4435,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>80</v>
@@ -4434,7 +4447,7 @@
         <v>12</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F23" s="1"/>
       <c r="I23" s="0" t="s">
@@ -4443,7 +4456,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>82</v>
@@ -4472,7 +4485,7 @@
         <v>37</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>87</v>
@@ -4492,7 +4505,7 @@
         <v>63</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>90</v>
@@ -4511,8 +4524,8 @@
       <c r="D27" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>374</v>
+      <c r="E27" s="6" t="s">
+        <v>375</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>93</v>
@@ -4532,7 +4545,7 @@
         <v>63</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F28" s="1"/>
       <c r="I28" s="0" t="s">
@@ -4541,7 +4554,7 @@
     </row>
     <row r="29" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>97</v>
@@ -4552,6 +4565,9 @@
       <c r="D29" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="E29" s="0" t="s">
+        <v>353</v>
+      </c>
       <c r="F29" s="1" t="s">
         <v>98</v>
       </c>
@@ -4559,9 +4575,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>100</v>
@@ -4571,6 +4587,9 @@
       </c>
       <c r="D30" s="0" t="s">
         <v>12</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>353</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>101</v>
@@ -4751,7 +4770,7 @@
     </row>
     <row r="41" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>133</v>
@@ -4771,7 +4790,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>137</v>
@@ -4811,7 +4830,7 @@
     </row>
     <row r="44" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>143</v>
@@ -4834,7 +4853,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>146</v>
@@ -4846,7 +4865,7 @@
         <v>12</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>147</v>
@@ -4857,7 +4876,7 @@
     </row>
     <row r="46" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>149</v>
@@ -4912,7 +4931,7 @@
         <v>69</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>158</v>
@@ -4923,7 +4942,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>160</v>
@@ -4955,7 +4974,7 @@
         <v>12</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>164</v>
@@ -4975,7 +4994,7 @@
         <v>69</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>167</v>
@@ -4986,7 +5005,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>169</v>
@@ -4998,7 +5017,7 @@
         <v>12</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>170</v>
@@ -5018,7 +5037,7 @@
         <v>12</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>173</v>
@@ -5038,7 +5057,7 @@
         <v>83</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>176</v>
@@ -5066,7 +5085,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>181</v>
@@ -5086,7 +5105,7 @@
     </row>
     <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>184</v>
@@ -5106,7 +5125,7 @@
     </row>
     <row r="58" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>187</v>
@@ -5263,7 +5282,7 @@
     </row>
     <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>211</v>
@@ -5340,7 +5359,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>224</v>
@@ -5377,7 +5396,7 @@
     </row>
     <row r="72" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>230</v>
@@ -5389,7 +5408,7 @@
         <v>17</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>231</v>
@@ -5400,7 +5419,7 @@
     </row>
     <row r="73" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>233</v>
@@ -5412,7 +5431,7 @@
         <v>17</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>234</v>
@@ -5440,7 +5459,7 @@
     </row>
     <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>240</v>
@@ -5469,7 +5488,7 @@
         <v>63</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>244</v>
@@ -5488,8 +5507,8 @@
       <c r="D77" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="E77" s="4" t="s">
-        <v>391</v>
+      <c r="E77" s="6" t="s">
+        <v>392</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>247</v>
@@ -5508,8 +5527,8 @@
       <c r="D78" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="E78" s="4" t="s">
-        <v>391</v>
+      <c r="E78" s="6" t="s">
+        <v>392</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>250</v>
@@ -5520,7 +5539,7 @@
     </row>
     <row r="79" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>252</v>
@@ -5532,7 +5551,7 @@
         <v>21</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>253</v>
@@ -5543,7 +5562,7 @@
     </row>
     <row r="80" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>255</v>
@@ -5572,7 +5591,7 @@
         <v>63</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>259</v>
@@ -5583,7 +5602,7 @@
     </row>
     <row r="82" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>261</v>
@@ -5603,7 +5622,7 @@
     </row>
     <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>264</v>
@@ -5626,7 +5645,7 @@
     </row>
     <row r="84" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>267</v>
@@ -5649,7 +5668,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>270</v>
@@ -5661,7 +5680,7 @@
         <v>69</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>271</v>
@@ -5672,7 +5691,7 @@
     </row>
     <row r="86" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>273</v>
@@ -5692,7 +5711,7 @@
     </row>
     <row r="87" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>277</v>
@@ -5715,7 +5734,7 @@
     </row>
     <row r="88" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>280</v>
@@ -5750,7 +5769,7 @@
         <v>12</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>288</v>
@@ -5761,7 +5780,7 @@
     </row>
     <row r="90" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>290</v>
@@ -5781,7 +5800,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>293</v>
@@ -5793,7 +5812,7 @@
         <v>12</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>294</v>
@@ -5804,7 +5823,7 @@
     </row>
     <row r="92" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>296</v>
@@ -5827,7 +5846,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>299</v>
@@ -5850,7 +5869,7 @@
     </row>
     <row r="94" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>302</v>
@@ -5873,7 +5892,7 @@
     </row>
     <row r="95" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>305</v>
@@ -5899,7 +5918,7 @@
     </row>
     <row r="96" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>310</v>
@@ -5925,7 +5944,7 @@
     </row>
     <row r="97" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>313</v>
@@ -5948,7 +5967,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>316</v>
@@ -5985,7 +6004,7 @@
     </row>
     <row r="100" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>322</v>
@@ -6005,7 +6024,7 @@
     </row>
     <row r="101" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>325</v>
@@ -6025,7 +6044,7 @@
     </row>
     <row r="102" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>328</v>
@@ -6045,7 +6064,7 @@
     </row>
     <row r="103" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>331</v>
@@ -6065,7 +6084,7 @@
     </row>
     <row r="104" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B104" s="0" t="s">
         <v>334</v>
@@ -6088,7 +6107,7 @@
     </row>
     <row r="105" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B105" s="0" t="s">
         <v>337</v>
@@ -6111,7 +6130,7 @@
     </row>
     <row r="106" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B106" s="0" t="s">
         <v>340</v>
@@ -6123,7 +6142,7 @@
         <v>12</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>341</v>

--- a/doc/objects/cat048.xlsx
+++ b/doc/objects/cat048.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="423">
   <si>
     <t xml:space="preserve">COLID</t>
   </si>
@@ -1130,6 +1130,9 @@
     <t xml:space="preserve">custom</t>
   </si>
   <si>
+    <t xml:space="preserve">could also be based on 230.STAT</t>
+  </si>
+  <si>
     <t xml:space="preserve">020.TYP</t>
   </si>
   <si>
@@ -1148,9 +1151,15 @@
     <t xml:space="preserve">different in db</t>
   </si>
   <si>
+    <t xml:space="preserve">?, could be interrogation code from Mode S</t>
+  </si>
+  <si>
     <t xml:space="preserve">TODO from framing? </t>
   </si>
   <si>
+    <t xml:space="preserve">?, relict from maastricht tracker</t>
+  </si>
+  <si>
     <t xml:space="preserve">020.ME</t>
   </si>
   <si>
@@ -1196,12 +1205,18 @@
     <t xml:space="preserve">custom based on 020.RDP</t>
   </si>
   <si>
+    <t xml:space="preserve">adapted to 1,2</t>
+  </si>
+  <si>
     <t xml:space="preserve">other counter</t>
   </si>
   <si>
     <t xml:space="preserve">TODO from framing?</t>
   </si>
   <si>
+    <t xml:space="preserve">custom based on 161.TRACK NUMBER</t>
+  </si>
+  <si>
     <t xml:space="preserve">010.SAC</t>
   </si>
   <si>
@@ -1217,6 +1232,9 @@
     <t xml:space="preserve">130.SRL.value</t>
   </si>
   <si>
+    <t xml:space="preserve">different in db, TODO check in decoder</t>
+  </si>
+  <si>
     <t xml:space="preserve">220.AIRCRAFT ADDRESS</t>
   </si>
   <si>
@@ -1271,10 +1289,7 @@
     <t xml:space="preserve">170.SUP</t>
   </si>
   <si>
-    <t xml:space="preserve">170.RAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not set in db</t>
+    <t xml:space="preserve">None</t>
   </si>
 </sst>
 </file>
@@ -1362,7 +1377,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1377,10 +1392,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1414,7 +1425,7 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.01"/>
@@ -3959,13 +3970,13 @@
   </sheetPr>
   <dimension ref="A1:I106"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B89" activeCellId="0" sqref="B89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.88"/>
@@ -4305,6 +4316,9 @@
       <c r="D16" s="0" t="s">
         <v>21</v>
       </c>
+      <c r="E16" s="0" t="s">
+        <v>369</v>
+      </c>
       <c r="F16" s="1" t="s">
         <v>57</v>
       </c>
@@ -4314,7 +4328,7 @@
     </row>
     <row r="17" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>59</v>
@@ -4342,8 +4356,8 @@
       <c r="D18" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>370</v>
+      <c r="E18" s="4" t="s">
+        <v>371</v>
       </c>
       <c r="F18" s="1"/>
       <c r="I18" s="0" t="s">
@@ -4360,8 +4374,8 @@
       <c r="D19" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>371</v>
+      <c r="E19" s="5" t="s">
+        <v>372</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>66</v>
@@ -4392,7 +4406,7 @@
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>73</v>
@@ -4424,7 +4438,7 @@
         <v>77</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>78</v>
@@ -4435,7 +4449,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>80</v>
@@ -4447,7 +4461,7 @@
         <v>12</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F23" s="1"/>
       <c r="I23" s="0" t="s">
@@ -4505,7 +4519,7 @@
         <v>63</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>90</v>
@@ -4524,8 +4538,8 @@
       <c r="D27" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>375</v>
+      <c r="E27" s="5" t="s">
+        <v>377</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>93</v>
@@ -4545,7 +4559,7 @@
         <v>63</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="F28" s="1"/>
       <c r="I28" s="0" t="s">
@@ -4554,7 +4568,7 @@
     </row>
     <row r="29" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>97</v>
@@ -4577,7 +4591,7 @@
     </row>
     <row r="30" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>100</v>
@@ -4770,7 +4784,7 @@
     </row>
     <row r="41" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>133</v>
@@ -4790,7 +4804,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>137</v>
@@ -4830,7 +4844,7 @@
     </row>
     <row r="44" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>143</v>
@@ -4853,7 +4867,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>146</v>
@@ -4876,7 +4890,7 @@
     </row>
     <row r="46" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>149</v>
@@ -5085,7 +5099,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>181</v>
@@ -5105,7 +5119,7 @@
     </row>
     <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>184</v>
@@ -5125,7 +5139,7 @@
     </row>
     <row r="58" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>187</v>
@@ -5282,7 +5296,7 @@
     </row>
     <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>211</v>
@@ -5359,7 +5373,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>224</v>
@@ -5396,7 +5410,7 @@
     </row>
     <row r="72" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>230</v>
@@ -5408,7 +5422,7 @@
         <v>17</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>231</v>
@@ -5419,7 +5433,7 @@
     </row>
     <row r="73" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>233</v>
@@ -5431,7 +5445,7 @@
         <v>17</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>234</v>
@@ -5459,7 +5473,7 @@
     </row>
     <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>240</v>
@@ -5469,6 +5483,9 @@
       </c>
       <c r="D75" s="0" t="s">
         <v>12</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>394</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>241</v>
@@ -5488,7 +5505,7 @@
         <v>63</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>244</v>
@@ -5507,8 +5524,8 @@
       <c r="D77" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="E77" s="6" t="s">
-        <v>392</v>
+      <c r="E77" s="5" t="s">
+        <v>396</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>247</v>
@@ -5527,8 +5544,8 @@
       <c r="D78" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="E78" s="6" t="s">
-        <v>392</v>
+      <c r="E78" s="5" t="s">
+        <v>396</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>250</v>
@@ -5537,9 +5554,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
-        <v>369</v>
+    <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="5" t="s">
+        <v>397</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>252</v>
@@ -5550,9 +5567,6 @@
       <c r="D79" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E79" s="0" t="s">
-        <v>374</v>
-      </c>
       <c r="F79" s="1" t="s">
         <v>253</v>
       </c>
@@ -5562,7 +5576,7 @@
     </row>
     <row r="80" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>255</v>
@@ -5591,7 +5605,7 @@
         <v>63</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>259</v>
@@ -5602,7 +5616,7 @@
     </row>
     <row r="82" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>261</v>
@@ -5622,7 +5636,7 @@
     </row>
     <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>264</v>
@@ -5645,7 +5659,7 @@
     </row>
     <row r="84" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>267</v>
@@ -5668,7 +5682,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>270</v>
@@ -5679,8 +5693,8 @@
       <c r="D85" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="E85" s="0" t="s">
-        <v>374</v>
+      <c r="E85" s="5" t="s">
+        <v>403</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>271</v>
@@ -5691,7 +5705,7 @@
     </row>
     <row r="86" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>273</v>
@@ -5711,7 +5725,7 @@
     </row>
     <row r="87" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>277</v>
@@ -5734,7 +5748,7 @@
     </row>
     <row r="88" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>280</v>
@@ -5769,7 +5783,7 @@
         <v>12</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>288</v>
@@ -5780,7 +5794,7 @@
     </row>
     <row r="90" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>290</v>
@@ -5800,7 +5814,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>293</v>
@@ -5823,7 +5837,7 @@
     </row>
     <row r="92" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>296</v>
@@ -5846,7 +5860,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>299</v>
@@ -5869,7 +5883,7 @@
     </row>
     <row r="94" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>302</v>
@@ -5892,7 +5906,7 @@
     </row>
     <row r="95" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>305</v>
@@ -5918,7 +5932,7 @@
     </row>
     <row r="96" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>310</v>
@@ -5944,7 +5958,7 @@
     </row>
     <row r="97" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>313</v>
@@ -5967,7 +5981,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>316</v>
@@ -6004,7 +6018,7 @@
     </row>
     <row r="100" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>322</v>
@@ -6024,7 +6038,7 @@
     </row>
     <row r="101" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>325</v>
@@ -6044,7 +6058,7 @@
     </row>
     <row r="102" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>328</v>
@@ -6064,7 +6078,7 @@
     </row>
     <row r="103" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>331</v>
@@ -6084,7 +6098,7 @@
     </row>
     <row r="104" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="B104" s="0" t="s">
         <v>334</v>
@@ -6107,7 +6121,7 @@
     </row>
     <row r="105" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="B105" s="0" t="s">
         <v>337</v>
@@ -6129,9 +6143,7 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
-        <v>416</v>
-      </c>
+      <c r="A106" s="5"/>
       <c r="B106" s="0" t="s">
         <v>340</v>
       </c>
@@ -6142,7 +6154,7 @@
         <v>12</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>341</v>

--- a/doc/objects/cat048.xlsx
+++ b/doc/objects/cat048.xlsx
@@ -1377,7 +1377,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1399,6 +1399,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3968,10 +3972,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I106"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B89" activeCellId="0" sqref="B89"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B102" activeCellId="0" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5555,7 +5559,7 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="6" t="s">
         <v>397</v>
       </c>
       <c r="B79" s="0" t="s">
@@ -6143,7 +6147,7 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="5"/>
+      <c r="A106" s="6"/>
       <c r="B106" s="0" t="s">
         <v>340</v>
       </c>
@@ -6162,6 +6166,9 @@
       <c r="I106" s="0" t="s">
         <v>15</v>
       </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/doc/objects/cat048.xlsx
+++ b/doc/objects/cat048.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="478">
   <si>
     <t xml:space="preserve">Active</t>
   </si>
@@ -40,6 +40,9 @@
     <t xml:space="preserve">DBOVar SN</t>
   </si>
   <si>
+    <t xml:space="preserve">DBOVar DataType</t>
+  </si>
+  <si>
     <t xml:space="preserve">DBOVar Comment</t>
   </si>
   <si>
@@ -59,6 +62,9 @@
   </si>
   <si>
     <t xml:space="preserve">SAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCHAR</t>
   </si>
   <si>
     <t xml:space="preserve">Data Source Identifier System Area Code</t>
@@ -93,6 +99,9 @@
   </si>
   <si>
     <t xml:space="preserve">ERR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOOL</t>
   </si>
   <si>
     <t xml:space="preserve">From 020.ERR
@@ -116,10 +125,10 @@
   </si>
   <si>
     <t xml:space="preserve">From 020.FOE/FRI
-00 No Mode 4 interrogation
-01 Friendly target
-10 Unknown target
-11 No reply</t>
+0 No Mode 4 interrogation
+1 Friendly target
+2 Unknown target
+3 No reply</t>
   </si>
   <si>
     <t xml:space="preserve">foe_fri</t>
@@ -320,6 +329,12 @@
     <t xml:space="preserve">Range</t>
   </si>
   <si>
+    <t xml:space="preserve">Rng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOUBLE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Measured position of an aircraft in local polar co-ordinates
 Max. range = 256 NM</t>
   </si>
@@ -463,6 +478,9 @@
   </si>
   <si>
     <t xml:space="preserve">MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UINT</t>
   </si>
   <si>
     <t xml:space="preserve">070.Mode-3/A reply in decimal
@@ -501,6 +519,12 @@
     <t xml:space="preserve">Mode C Code</t>
   </si>
   <si>
+    <t xml:space="preserve">MC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLOAT</t>
+  </si>
+  <si>
     <t xml:space="preserve">From 090.Flight Level
 This data item shall be sent when Mode C code or Mode S altitude code is present and decodable. It represents the flight level of the plot, even if associated
 with a track.</t>
@@ -625,6 +649,9 @@
   </si>
   <si>
     <t xml:space="preserve">PAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INT</t>
   </si>
   <si>
     <t xml:space="preserve">From 130.PAM
@@ -1297,6 +1324,9 @@
     <t xml:space="preserve">ACID</t>
   </si>
   <si>
+    <t xml:space="preserve">STRING</t>
+  </si>
+  <si>
     <t xml:space="preserve">aircraft_identification</t>
   </si>
   <si>
@@ -1636,19 +1666,10 @@
     <t xml:space="preserve">Data Source ID</t>
   </si>
   <si>
-    <t xml:space="preserve">ground_bit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ground Bit</t>
-  </si>
-  <si>
     <t xml:space="preserve">rec_num</t>
   </si>
   <si>
     <t xml:space="preserve">Unique record id starting with 0 on every new recording</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_ssr.rec_num</t>
   </si>
   <si>
     <t xml:space="preserve">line_id</t>
@@ -1664,11 +1685,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1684,6 +1706,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1728,13 +1757,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1754,2121 +1787,2304 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I148"/>
+  <dimension ref="A1:J147"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A135" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E73" activeCellId="0" sqref="E73"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="31.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="37.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="28.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="23.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="28.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="27.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="28.48"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="1" width="11.54"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" s="2" customFormat="true" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>9</v>
+      <c r="A2" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>9</v>
+      <c r="A3" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>9</v>
+      <c r="A4" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="68.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>9</v>
+      <c r="A5" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>30</v>
+        <v>14</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>9</v>
+      <c r="A8" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>38</v>
+        <v>26</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>9</v>
+      <c r="A9" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>9</v>
+      <c r="J9" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>47</v>
+        <v>26</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>9</v>
+      <c r="A11" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="J11" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>9</v>
+      <c r="A12" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>9</v>
+      <c r="J12" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>61</v>
+        <v>26</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>9</v>
+      <c r="A14" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I14" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="J14" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="113.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>9</v>
+      <c r="A15" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>72</v>
+        <v>14</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="292.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="269.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>9</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I19" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>9</v>
+      <c r="J19" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="H20" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I20" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>9</v>
+      <c r="A21" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>9</v>
+      <c r="A22" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>98</v>
+        <v>86</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>9</v>
+      <c r="A33" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I33" s="0" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="68.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I34" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I35" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>9</v>
+      <c r="A36" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I36" s="0" t="s">
-        <v>133</v>
+        <v>26</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="101.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>9</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="96.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I38" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>9</v>
+      <c r="A39" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I39" s="0" t="s">
-        <v>145</v>
+        <v>26</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>9</v>
+      <c r="A40" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="I40" s="0" t="s">
-        <v>150</v>
+        <v>26</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="1" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="1" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="1" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="68.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>9</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I45" s="0" t="s">
-        <v>161</v>
+        <v>168</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="1" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="1" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="1" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>9</v>
+      <c r="A49" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="I49" s="0" t="s">
-        <v>172</v>
+        <v>86</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>9</v>
+      <c r="A50" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="I50" s="0" t="s">
-        <v>178</v>
+        <v>185</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>179</v>
+      <c r="A51" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>184</v>
+        <v>86</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I51" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="I52" s="0" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I53" s="0" t="s">
-        <v>197</v>
+      <c r="H53" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>9</v>
+      <c r="A54" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I54" s="0" t="s">
-        <v>203</v>
+        <v>211</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>9</v>
+      <c r="A55" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="I55" s="0" t="s">
-        <v>209</v>
+        <v>132</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
-        <v>9</v>
+      <c r="A56" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="I56" s="0" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>9</v>
+        <v>224</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="I57" s="0" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="85.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>9</v>
+        <v>132</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="79.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="I58" s="0" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="68.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="I59" s="0" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="90.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="79.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="I60" s="0" t="s">
-        <v>239</v>
+        <v>26</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="1" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
-        <v>9</v>
+      <c r="A62" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="I62" s="0" t="s">
-        <v>246</v>
+        <v>26</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="68.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
-        <v>9</v>
+      <c r="A63" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="I63" s="0" t="s">
-        <v>252</v>
+        <v>26</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="90.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
-        <v>179</v>
+      <c r="A64" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="I64" s="0" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="90.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="85.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I65" s="0" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="180.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="169.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="I66" s="0" t="s">
-        <v>270</v>
+        <v>26</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="68.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
-        <v>9</v>
+      <c r="A67" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="I67" s="0" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>281</v>
+        <v>86</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="I68" s="0" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="90.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
-        <v>9</v>
+        <v>290</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="79.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>286</v>
+        <v>86</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I69" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I70" s="0" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="E71" s="1" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>294</v>
+        <v>86</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="I71" s="0" t="s">
-        <v>297</v>
+        <v>303</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
-        <v>9</v>
+      <c r="A72" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>299</v>
+        <v>86</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I72" s="0" t="s">
-        <v>302</v>
+        <v>308</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
-        <v>9</v>
+      <c r="A73" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>299</v>
+        <v>86</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I73" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
-        <v>9</v>
+      <c r="A74" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="I74" s="0" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="68.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
-        <v>9</v>
+        <v>132</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="I75" s="0" t="s">
-        <v>318</v>
+        <v>26</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
-        <v>179</v>
+      <c r="A76" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="I76" s="0" t="s">
-        <v>324</v>
+        <v>26</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
-        <v>9</v>
+      <c r="A77" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="I77" s="0" t="s">
-        <v>329</v>
+        <v>26</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
-        <v>9</v>
+      <c r="A78" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="I78" s="0" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="180.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="157.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="I79" s="0" t="s">
-        <v>340</v>
+        <v>14</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="68.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
-        <v>9</v>
+      <c r="A80" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="I80" s="0" t="s">
-        <v>346</v>
+        <v>26</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
-        <v>179</v>
+      <c r="A81" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="I81" s="0" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="180.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="157.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="I82" s="0" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="I83" s="0" t="s">
-        <v>362</v>
+        <v>371</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="1" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="1" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="1" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="1" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="1" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="1" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="1" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="1" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="1" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="1" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="1" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="1" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="1" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="1" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="1" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="1" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="1" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="1" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="1" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="1" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="1" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="1" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="64.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="1" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="1" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="1" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="1" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="68.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="1" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="1" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="1" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="1" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="1" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="1" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="1" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="1" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="1" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="1" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="1" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="1" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="1" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="1" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="1" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="1" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="1" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="1" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="1" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="1" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="1" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="1" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="64.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="1" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="1" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="1" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="1" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="68.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="1" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="1" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="1" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="1" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="68.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="1" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="1" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="1" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
-        <v>9</v>
+      <c r="A144" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="I144" s="0" t="s">
-        <v>460</v>
+        <v>371</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
-        <v>9</v>
+      <c r="A145" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="I145" s="0" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>464</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E146" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="I146" s="0" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>474</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E147" s="1" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="I147" s="0" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E148" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="G148" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="I148" s="0" t="s">
-        <v>469</v>
+        <v>132</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>476</v>
       </c>
     </row>
   </sheetData>

--- a/doc/objects/cat048.xlsx
+++ b/doc/objects/cat048.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="502">
   <si>
     <t xml:space="preserve">Active</t>
   </si>
@@ -67,7 +67,8 @@
     <t xml:space="preserve">UCHAR</t>
   </si>
   <si>
-    <t xml:space="preserve">Data Source Identifier System Area Code</t>
+    <t xml:space="preserve">From 010.SAC
+Data Source Identifier System Area Code</t>
   </si>
   <si>
     <t xml:space="preserve">sac</t>
@@ -82,7 +83,8 @@
     <t xml:space="preserve">SIC</t>
   </si>
   <si>
-    <t xml:space="preserve">Data Source Identifier System Identification Code</t>
+    <t xml:space="preserve">From 010.SIC
+Data Source Identifier System Identification Code</t>
   </si>
   <si>
     <t xml:space="preserve">sic</t>
@@ -153,7 +155,8 @@
     <t xml:space="preserve">ME</t>
   </si>
   <si>
-    <t xml:space="preserve">0 No military emergency 
+    <t xml:space="preserve">From 020.ME
+0 No military emergency 
 1 Military emergency</t>
   </si>
   <si>
@@ -173,6 +176,11 @@
     <t xml:space="preserve">MI</t>
   </si>
   <si>
+    <t xml:space="preserve">From 020.MI
+0 No military identification
+1 Military identification</t>
+  </si>
+  <si>
     <t xml:space="preserve">military_identification</t>
   </si>
   <si>
@@ -186,6 +194,11 @@
     <t xml:space="preserve">FFT</t>
   </si>
   <si>
+    <t xml:space="preserve">From 020.RAB
+0 Report from aircraft transponder
+1 Report from field monitor(fixed transponder)</t>
+  </si>
+  <si>
     <t xml:space="preserve">fft</t>
   </si>
   <si>
@@ -202,6 +215,11 @@
     <t xml:space="preserve">RDP</t>
   </si>
   <si>
+    <t xml:space="preserve">From 020.RDP
+0 Report from RDP Chain 1
+1 Report from RDP Chain 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">rdp_chain</t>
   </si>
   <si>
@@ -218,6 +236,11 @@
     <t xml:space="preserve">SIM</t>
   </si>
   <si>
+    <t xml:space="preserve">From 020.SIM
+0  Actual target report
+1 Simulated target report</t>
+  </si>
+  <si>
     <t xml:space="preserve">simulated</t>
   </si>
   <si>
@@ -231,6 +254,11 @@
     <t xml:space="preserve">SPI</t>
   </si>
   <si>
+    <t xml:space="preserve">From 020.SPI
+0 Absence of SPI
+1 Special Position Identification</t>
+  </si>
+  <si>
     <t xml:space="preserve">spi</t>
   </si>
   <si>
@@ -245,6 +273,11 @@
   </si>
   <si>
     <t xml:space="preserve">TST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From 020.TST
+0 Real target report
+1 Test target report</t>
   </si>
   <si>
     <t xml:space="preserve">test</t>
@@ -269,7 +302,8 @@
     <t xml:space="preserve">TYP</t>
   </si>
   <si>
-    <t xml:space="preserve">Detection Type
+    <t xml:space="preserve">From 020.TYP
+Detection Type
 0 No detection
 1 Single PSR detection
 2 Single SSR detection
@@ -335,7 +369,8 @@
     <t xml:space="preserve">DOUBLE</t>
   </si>
   <si>
-    <t xml:space="preserve">Measured position of an aircraft in local polar co-ordinates
+    <t xml:space="preserve">From 040.RHO
+Measured position of an aircraft in local polar co-ordinates
 Max. range = 256 NM</t>
   </si>
   <si>
@@ -354,7 +389,8 @@
     <t xml:space="preserve">Azm</t>
   </si>
   <si>
-    <t xml:space="preserve">Measured position of an aircraft in local polar co-ordinates</t>
+    <t xml:space="preserve">From 040.THETA
+Measured position of an aircraft in local polar co-ordinates</t>
   </si>
   <si>
     <t xml:space="preserve">azimuth</t>
@@ -452,6 +488,11 @@
     <t xml:space="preserve">MA G</t>
   </si>
   <si>
+    <t xml:space="preserve">From 070.G
+0 Default
+1 Garbled code</t>
+  </si>
+  <si>
     <t xml:space="preserve">mode_3a_garbled</t>
   </si>
   <si>
@@ -468,6 +509,11 @@
     <t xml:space="preserve">MA S</t>
   </si>
   <si>
+    <t xml:space="preserve">From 070.L
+0 Mode-3/A code derived from the reply of the transponder
+1 Mode-3/A code not extracted during the last scan</t>
+  </si>
+  <si>
     <t xml:space="preserve">mode_3a_smoothed</t>
   </si>
   <si>
@@ -483,7 +529,8 @@
     <t xml:space="preserve">UINT</t>
   </si>
   <si>
-    <t xml:space="preserve">070.Mode-3/A reply in decimal
+    <t xml:space="preserve">From 070.Mode-3/A reply
+070.Mode-3/A reply in decimal
 representation</t>
   </si>
   <si>
@@ -499,7 +546,8 @@
     <t xml:space="preserve">MA V</t>
   </si>
   <si>
-    <t xml:space="preserve">0 Code not validated
+    <t xml:space="preserve">From 070.V
+0 Code not validated
 1 Code validated
 </t>
   </si>
@@ -617,7 +665,22 @@
 1 Doppler speed is doubtful</t>
   </si>
   <si>
-    <t xml:space="preserve">120.RDS.Raw Doppler Speed</t>
+    <t xml:space="preserve">120.RDS.Raw Doppler Speed.AMB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ambiguity Range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120.RDS.Raw Doppler Speed.DOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doppler Speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120.RDS.Raw Doppler Speed.FRQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmitter Frequency</t>
   </si>
   <si>
     <t xml:space="preserve">130.APD.value</t>
@@ -632,7 +695,8 @@
     <t xml:space="preserve">APD</t>
   </si>
   <si>
-    <t xml:space="preserve">From 130.APD
+    <t xml:space="preserve">From 130.APD.value
+From 130.APD
 Difference in Azimuth between PSR and SSR plot</t>
   </si>
   <si>
@@ -654,7 +718,8 @@
     <t xml:space="preserve">INT</t>
   </si>
   <si>
-    <t xml:space="preserve">From 130.PAM
+    <t xml:space="preserve">From 130.PAM.value
+From 130.PAM
 PSR amplitude
 </t>
   </si>
@@ -696,7 +761,8 @@
     <t xml:space="preserve">RPD</t>
   </si>
   <si>
-    <t xml:space="preserve">From 130.RPD
+    <t xml:space="preserve">From 130.RPD.value
+From 130.RPD
 Difference in Range between PSR and SSR plot</t>
   </si>
   <si>
@@ -715,7 +781,8 @@
     <t xml:space="preserve">SAM</t>
   </si>
   <si>
-    <t xml:space="preserve">From 130.SAM
+    <t xml:space="preserve">From 130.SAM.value
+From 130.SAM
 Amplitude of received replies for M(SSR)</t>
   </si>
   <si>
@@ -734,7 +801,8 @@
     <t xml:space="preserve">SRL</t>
   </si>
   <si>
-    <t xml:space="preserve">From 130.SRL
+    <t xml:space="preserve">From 130.SRL.value
+From 130.SRL
 SSR plot runlength</t>
   </si>
   <si>
@@ -753,7 +821,8 @@
     <t xml:space="preserve">SSR</t>
   </si>
   <si>
-    <t xml:space="preserve">From 130.SRR
+    <t xml:space="preserve">From 130.SRR.value
+From 130.SRR
 Number of received replies for M(SSR)</t>
   </si>
   <si>
@@ -775,7 +844,8 @@
     <t xml:space="preserve">ToD</t>
   </si>
   <si>
-    <t xml:space="preserve">Absolute time stamping expressed as Co-ordinated Universal Time (UTC)</t>
+    <t xml:space="preserve">From 140.Time-of-Day
+Absolute time stamping expressed as Co-ordinated Universal Time (UTC)</t>
   </si>
   <si>
     <t xml:space="preserve">time_of_day</t>
@@ -790,7 +860,8 @@
     <t xml:space="preserve">TN</t>
   </si>
   <si>
-    <t xml:space="preserve">An integer value representing a unique reference to a track
+    <t xml:space="preserve">From 161.TRACK NUMBER
+An integer value representing a unique reference to a track
 record within a particular track file.</t>
   </si>
   <si>
@@ -1026,7 +1097,8 @@
     <t xml:space="preserve">GSpd</t>
   </si>
   <si>
-    <t xml:space="preserve">Calculated track velocity expressed in polar co-ordinates.</t>
+    <t xml:space="preserve">From 200.CALCULATED GROUNDSPEED
+Calculated track velocity expressed in polar co-ordinates.</t>
   </si>
   <si>
     <t xml:space="preserve">track_groundspeed</t>
@@ -1041,7 +1113,8 @@
     <t xml:space="preserve">Ang</t>
   </si>
   <si>
-    <t xml:space="preserve">Calculated track velocity expressed in polar co-ordinates.
+    <t xml:space="preserve">From 200.CALCULATED HEADING
+Calculated track velocity expressed in polar co-ordinates.
 Was called Track Heading previously, but renamed since it refers to  the direction of movement.</t>
   </si>
   <si>
@@ -1061,6 +1134,11 @@
     <t xml:space="preserve">SigH</t>
   </si>
   <si>
+    <t xml:space="preserve">From 210.Sigma (H)
+Standard Deviation on the heading within the local grid system
+0 &lt;= sigma(H) &lt; 22.5 degrees</t>
+  </si>
+  <si>
     <t xml:space="preserve">track_sigma_h</t>
   </si>
   <si>
@@ -1077,6 +1155,11 @@
     <t xml:space="preserve">SigV</t>
   </si>
   <si>
+    <t xml:space="preserve">From 210.Sigma (V)
+Standard Deviation on the groundspeed within the local grid system
+0&lt;=Sigma (V)&lt;56.25 Kt</t>
+  </si>
+  <si>
     <t xml:space="preserve">track_sigma_v</t>
   </si>
   <si>
@@ -1093,6 +1176,11 @@
     <t xml:space="preserve">SigX</t>
   </si>
   <si>
+    <t xml:space="preserve">From 210.Sigma (X)
+Standard Deviation on the horizontal axis of the local grid system
+0&lt;= Sigma(X)&lt;2 NM</t>
+  </si>
+  <si>
     <t xml:space="preserve">track_sigma_x</t>
   </si>
   <si>
@@ -1109,6 +1197,11 @@
     <t xml:space="preserve">SigY</t>
   </si>
   <si>
+    <t xml:space="preserve">From 210.Sigma (Y)
+Standard Deviation on the horizontal axis of the local grid system
+0&lt;= Sigma(X)&lt;2 NM</t>
+  </si>
+  <si>
     <t xml:space="preserve">track_sigma_y</t>
   </si>
   <si>
@@ -1122,6 +1215,10 @@
   </si>
   <si>
     <t xml:space="preserve">ACAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From 220.AIRCRAFT ADDRESS
+24-bits Mode S address</t>
   </si>
   <si>
     <t xml:space="preserve">aircraft_address</t>
@@ -1327,10 +1424,29 @@
     <t xml:space="preserve">STRING</t>
   </si>
   <si>
+    <t xml:space="preserve">From 240.Aircraft Identification
+Aircraft Identification</t>
+  </si>
+  <si>
     <t xml:space="preserve">aircraft_identification</t>
   </si>
   <si>
-    <t xml:space="preserve">250.Mode S MB Data</t>
+    <t xml:space="preserve">250.Mode S MB Data.BDS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comm B Data Buffer Store 1 Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">250.Mode S MB Data.BDS2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comm B Data Buffer Store 2 Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">250.Mode S MB Data.MB Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56-bit message conveying Mode S Comm B message data</t>
   </si>
   <si>
     <t xml:space="preserve">260.MB DATA</t>
@@ -1651,7 +1767,8 @@
     <t xml:space="preserve">ARTAS Hash</t>
   </si>
   <si>
-    <t xml:space="preserve">ARTAS MD5 Hash Code</t>
+    <t xml:space="preserve">From artas_md5
+ARTAS MD5 Hash Code</t>
   </si>
   <si>
     <t xml:space="preserve">artas_hash</t>
@@ -1663,7 +1780,8 @@
     <t xml:space="preserve">DS ID</t>
   </si>
   <si>
-    <t xml:space="preserve">Data Source ID</t>
+    <t xml:space="preserve">From ds_id
+Data Source ID</t>
   </si>
   <si>
     <t xml:space="preserve">rec_num</t>
@@ -1787,10 +1905,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J147"/>
+  <dimension ref="A1:J151"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1802,7 +1920,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="27.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="27.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="28.48"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="1" width="11.54"/>
   </cols>
@@ -1839,7 +1957,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1862,7 +1980,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1944,7 +2062,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1970,7 +2088,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1990,242 +2108,242 @@
         <v>26</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="64.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="113.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="135.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="269.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="68.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="H20" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2233,25 +2351,25 @@
         <v>10</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2259,205 +2377,205 @@
         <v>10</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="68.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="96.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2465,28 +2583,28 @@
         <v>10</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2494,25 +2612,25 @@
         <v>10</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2520,57 +2638,57 @@
         <v>10</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="1" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="1" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="1" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2578,153 +2696,117 @@
         <v>10</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="1" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="1" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="1" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J50" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="68.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="G51" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H51" s="1" t="s">
+      <c r="J51" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="I51" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J51" s="1" t="s">
+    </row>
+    <row r="52" customFormat="false" ht="79.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>199</v>
@@ -2733,102 +2815,99 @@
         <v>200</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>10</v>
+        <v>201</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>185</v>
+        <v>92</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="68.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>90</v>
+        <v>209</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>185</v>
+        <v>92</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>90</v>
+        <v>212</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="68.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>132</v>
+        <v>198</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>221</v>
+        <v>96</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>222</v>
@@ -2837,91 +2916,97 @@
         <v>223</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>145</v>
+        <v>198</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>224</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>221</v>
+        <v>96</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="68.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>226</v>
       </c>
+      <c r="C57" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="E57" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="79.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>234</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F58" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I58" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="G58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="J58" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="68.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>26</v>
+        <v>140</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="79.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2929,1162 +3014,1233 @@
         <v>10</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H60" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H61" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="79.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="68.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G63" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H63" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="90.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="H64" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="85.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="68.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="169.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="90.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>10</v>
+        <v>201</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="68.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="85.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="169.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="79.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="68.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>90</v>
+        <v>293</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>294</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>90</v>
+        <v>296</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F70" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I70" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="G70" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="J70" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="113.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>287</v>
+        <v>96</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>287</v>
+        <v>96</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="68.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>308</v>
+        <v>311</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="68.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>99</v>
+        <v>300</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="68.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>318</v>
+        <v>326</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="68.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>326</v>
+        <v>332</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>188</v>
+        <v>10</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>26</v>
+        <v>140</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>336</v>
+        <v>342</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>343</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>10</v>
+        <v>201</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>341</v>
+        <v>348</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>349</v>
       </c>
       <c r="G78" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="G80" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H78" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="157.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="G79" s="1" t="s">
+      <c r="H80" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="157.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G81" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H79" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="68.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="G80" s="1" t="s">
+      <c r="H81" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="68.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="G82" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H80" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="G81" s="1" t="s">
+      <c r="H82" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G83" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H81" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="157.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="G82" s="1" t="s">
+      <c r="H83" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="157.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="G84" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H82" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H84" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B85" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>386</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="1" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="1" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="1" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="1" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>105</v>
+        <v>399</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="1" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="1" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="1" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="1" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>390</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="1" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="1" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="1" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="1" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="1" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="1" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="1" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="1" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="1" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="1" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="1" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="1" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="1" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="1" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="1" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="1" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="1" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="1" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="1" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="1" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="1" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="1" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="1" t="s">
-        <v>433</v>
+        <v>451</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="1" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>386</v>
+        <v>454</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="1" t="s">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="1" t="s">
-        <v>436</v>
+        <v>456</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="1" t="s">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="1" t="s">
-        <v>439</v>
+        <v>458</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>440</v>
+        <v>410</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="1" t="s">
-        <v>442</v>
+        <v>460</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="1" t="s">
-        <v>443</v>
+        <v>461</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="1" t="s">
-        <v>444</v>
+        <v>463</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="1" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="1" t="s">
-        <v>446</v>
+        <v>466</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="1" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="1" t="s">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="1" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="1" t="s">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="1" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="1" t="s">
-        <v>452</v>
+        <v>472</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="1" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="1" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="1" t="s">
-        <v>455</v>
+        <v>475</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="1" t="s">
-        <v>456</v>
+        <v>476</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="1" t="s">
-        <v>457</v>
+        <v>477</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="1" t="s">
-        <v>458</v>
+        <v>478</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="1" t="s">
-        <v>459</v>
+        <v>479</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="1" t="s">
-        <v>461</v>
+        <v>480</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="1" t="s">
-        <v>463</v>
+        <v>481</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="1" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="G144" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="H144" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="J144" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G145" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H145" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="J145" s="1" t="s">
-        <v>471</v>
+        <v>485</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E146" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H146" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="J146" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E147" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="G147" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H147" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="J147" s="1" t="s">
-        <v>476</v>
+      <c r="B146" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B147" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E150" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E151" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
